--- a/design/Z_战斗.xlsx
+++ b/design/Z_战斗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5145" windowHeight="2535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5145" windowHeight="2535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="misc" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>output</t>
   </si>
@@ -306,7 +306,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>min_surrender(int)</t>
+    <t>加速帧率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick_frame_rate(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrender_phase(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrender_phase(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -785,6 +797,9 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -796,7 +811,10 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,16 +825,25 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -829,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/design/Z_战斗.xlsx
+++ b/design/Z_战斗.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="misc" sheetId="1" r:id="rId1"/>
     <sheet name="阶段" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="野怪" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>output</t>
   </si>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>monsters(map)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3-5，pve 阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,14 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物(id: 坐标)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>frame_rate(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,6 +307,58 @@
   </si>
   <si>
     <t>surrender_phase(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_id(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>position(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffs(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsters(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>belong(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动金币收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -794,13 +834,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -808,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -822,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
@@ -854,24 +894,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="3" max="4" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -892,7 +932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -903,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -923,28 +963,34 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -955,19 +1001,25 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -978,19 +1030,25 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1001,15 +1059,21 @@
         <v>1</v>
       </c>
       <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>57</v>
+      <c r="F11" s="5">
+        <v>10</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="5">
+        <v>30</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1027,8 +1091,10 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1039,13 +1105,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="5">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>30</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1063,8 +1135,10 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1075,13 +1149,19 @@
         <v>6</v>
       </c>
       <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5">
+        <v>30</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1099,8 +1179,10 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1110,12 +1192,18 @@
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <v>30</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1133,8 +1221,10 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1145,13 +1235,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <v>30</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1169,8 +1265,10 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1180,12 +1278,18 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>10</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5">
+        <v>30</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1203,8 +1307,10 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1215,13 +1321,19 @@
         <v>6</v>
       </c>
       <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5">
+        <v>30</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1239,8 +1351,10 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1250,12 +1364,18 @@
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5">
+        <v>30</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1273,8 +1393,10 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1284,12 +1406,18 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5">
+        <v>30</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1307,8 +1435,10 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1318,12 +1448,20 @@
       <c r="C20" s="5">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4</v>
+      </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5">
+        <v>30</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1341,8 +1479,10 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1352,12 +1492,18 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5">
+        <v>30</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1375,8 +1521,10 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1386,12 +1534,20 @@
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="5">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5">
+        <v>30</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1409,8 +1565,10 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -1420,12 +1578,18 @@
       <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1443,8 +1607,10 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>14</v>
       </c>
@@ -1454,12 +1620,18 @@
       <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5">
+        <v>30</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1477,8 +1649,10 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -1488,12 +1662,20 @@
       <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>2</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="5">
+        <v>10</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>30</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1511,8 +1693,10 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1522,12 +1706,18 @@
       <c r="C26" s="5">
         <v>5</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>10</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <v>30</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1545,8 +1735,10 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1556,12 +1748,20 @@
       <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="5">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5">
+        <v>30</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -1579,8 +1779,10 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>18</v>
       </c>
@@ -1590,12 +1792,18 @@
       <c r="C28" s="5">
         <v>6</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <v>2</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5">
+        <v>10</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5">
+        <v>30</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1613,8 +1821,10 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -1624,12 +1834,20 @@
       <c r="C29" s="5">
         <v>3</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="5">
+        <v>10</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5">
+        <v>30</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1647,8 +1865,10 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>20</v>
       </c>
@@ -1658,12 +1878,18 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5">
+        <v>10</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5">
+        <v>30</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -1681,8 +1907,10 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-    </row>
-    <row r="31" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>21</v>
       </c>
@@ -1692,12 +1920,20 @@
       <c r="C31" s="5">
         <v>4</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5">
+        <v>30</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1715,8 +1951,10 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>22</v>
       </c>
@@ -1726,12 +1964,18 @@
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5">
+        <v>30</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1749,8 +1993,10 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>23</v>
       </c>
@@ -1760,12 +2006,20 @@
       <c r="C33" s="5">
         <v>3</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="5">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5">
+        <v>5</v>
+      </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5">
+        <v>30</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -1783,8 +2037,10 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>24</v>
       </c>
@@ -1794,12 +2050,18 @@
       <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5">
+        <v>10</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5">
+        <v>30</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -1817,23 +2079,31 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>25</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35" s="5">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
         <v>3</v>
       </c>
-      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5">
+        <v>10</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5">
+        <v>30</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -1851,23 +2121,33 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36" s="5">
-        <v>2</v>
-      </c>
-      <c r="D36" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3</v>
+      </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="F36" s="5">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
       <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5">
+        <v>30</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -1885,23 +2165,31 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>27</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5">
+        <v>10</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="I37" s="5">
+        <v>30</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -1919,23 +2207,33 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>28</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C38" s="5">
-        <v>5</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="5">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5">
+        <v>5</v>
+      </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5">
+        <v>30</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -1953,23 +2251,31 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>29</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C39" s="5">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5">
+        <v>10</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5">
+        <v>30</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -1987,23 +2293,33 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>30</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C40" s="5">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="F40" s="5">
+        <v>10</v>
+      </c>
+      <c r="G40" s="5">
+        <v>5</v>
+      </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5">
+        <v>30</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2021,23 +2337,31 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>31</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C41" s="5">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4</v>
+      </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5">
+        <v>10</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5">
+        <v>30</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -2055,23 +2379,33 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+    </row>
+    <row r="42" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>32</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>35</v>
+      <c r="B42" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C42" s="5">
-        <v>5</v>
-      </c>
-      <c r="D42" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D42" s="5">
+        <v>4</v>
+      </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="F42" s="5">
+        <v>10</v>
+      </c>
+      <c r="G42" s="5">
+        <v>5</v>
+      </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5">
+        <v>30</v>
+      </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -2089,23 +2423,31 @@
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-    </row>
-    <row r="43" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>33</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>18</v>
+      <c r="B43" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C43" s="5">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5">
         <v>4</v>
       </c>
-      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5">
+        <v>10</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="I43" s="5">
+        <v>30</v>
+      </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -2123,23 +2465,33 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>34</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C44" s="5">
-        <v>5</v>
-      </c>
-      <c r="D44" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4</v>
+      </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="F44" s="5">
+        <v>10</v>
+      </c>
+      <c r="G44" s="5">
+        <v>5</v>
+      </c>
       <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>30</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -2157,23 +2509,31 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>35</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C45" s="5">
-        <v>3</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D45" s="5">
+        <v>4</v>
+      </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5">
+        <v>10</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5">
+        <v>30</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -2191,23 +2551,31 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>36</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C46" s="5">
         <v>5</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>4</v>
+      </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5">
+        <v>10</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <v>30</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -2225,8 +2593,10 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>37</v>
       </c>
@@ -2236,12 +2606,20 @@
       <c r="C47" s="5">
         <v>3</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5">
+        <v>4</v>
+      </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="F47" s="5">
+        <v>10</v>
+      </c>
+      <c r="G47" s="5">
+        <v>5</v>
+      </c>
       <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5">
+        <v>30</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -2259,23 +2637,31 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>38</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C48" s="5">
         <v>5</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5">
+        <v>4</v>
+      </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5">
+        <v>10</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="I48" s="5">
+        <v>30</v>
+      </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2293,8 +2679,10 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>39</v>
       </c>
@@ -2304,12 +2692,20 @@
       <c r="C49" s="5">
         <v>3</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="5">
+        <v>4</v>
+      </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5">
+        <v>5</v>
+      </c>
       <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5">
+        <v>30</v>
+      </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -2327,8 +2723,10 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>40</v>
       </c>
@@ -2336,14 +2734,20 @@
         <v>38</v>
       </c>
       <c r="C50" s="5">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D50" s="5">
+        <v>4</v>
+      </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5">
+        <v>10</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="I50" s="5">
+        <v>30</v>
+      </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2361,8 +2765,10 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>41</v>
       </c>
@@ -2372,12 +2778,20 @@
       <c r="C51" s="5">
         <v>3</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5">
+        <v>5</v>
+      </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+      <c r="F51" s="5">
+        <v>10</v>
+      </c>
+      <c r="G51" s="5">
+        <v>5</v>
+      </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5">
+        <v>30</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2395,8 +2809,10 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>42</v>
       </c>
@@ -2404,14 +2820,20 @@
         <v>39</v>
       </c>
       <c r="C52" s="5">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>5</v>
+      </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5">
+        <v>10</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5">
+        <v>30</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -2429,23 +2851,33 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+    </row>
+    <row r="53" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>15</v>
+      <c r="B53" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C53" s="5">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D53" s="5">
+        <v>5</v>
+      </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="F53" s="5">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5</v>
+      </c>
       <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5">
+        <v>30</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -2463,8 +2895,10 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>44</v>
       </c>
@@ -2474,12 +2908,18 @@
       <c r="C54" s="5">
         <v>5</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5">
+        <v>5</v>
+      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5">
+        <v>10</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5">
+        <v>30</v>
+      </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -2497,23 +2937,33 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>45</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>18</v>
+      <c r="B55" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C55" s="5">
-        <v>4</v>
-      </c>
-      <c r="D55" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>5</v>
+      </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+      <c r="F55" s="5">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5">
+        <v>5</v>
+      </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5">
+        <v>30</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2531,8 +2981,10 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>46</v>
       </c>
@@ -2542,12 +2994,18 @@
       <c r="C56" s="5">
         <v>5</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5">
+        <v>5</v>
+      </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5">
+        <v>10</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5">
+        <v>30</v>
+      </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2565,23 +3023,31 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>47</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57" s="5">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>5</v>
+      </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="5">
+        <v>10</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5">
+        <v>30</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -2599,23 +3065,33 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>48</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C58" s="5">
-        <v>5</v>
-      </c>
-      <c r="D58" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>5</v>
+      </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="F58" s="5">
+        <v>10</v>
+      </c>
+      <c r="G58" s="5">
+        <v>5</v>
+      </c>
       <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5">
+        <v>30</v>
+      </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -2633,23 +3109,31 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>49</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D59" s="5">
+        <v>5</v>
+      </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5">
+        <v>10</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5">
+        <v>30</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -2667,23 +3151,33 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>50</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60" s="5">
-        <v>5</v>
-      </c>
-      <c r="D60" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D60" s="5">
+        <v>5</v>
+      </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="F60" s="5">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5">
+        <v>5</v>
+      </c>
       <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5">
+        <v>30</v>
+      </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -2701,23 +3195,31 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>51</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C61" s="5">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5">
+        <v>10</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5">
+        <v>30</v>
+      </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -2735,23 +3237,33 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>52</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C62" s="5">
-        <v>5</v>
-      </c>
-      <c r="D62" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>6</v>
+      </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="F62" s="5">
+        <v>10</v>
+      </c>
+      <c r="G62" s="5">
+        <v>5</v>
+      </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5">
+        <v>30</v>
+      </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -2769,23 +3281,31 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>53</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C63" s="5">
-        <v>3</v>
-      </c>
-      <c r="D63" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="5">
+        <v>6</v>
+      </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5">
+        <v>10</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5">
+        <v>30</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
@@ -2803,23 +3323,33 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+    </row>
+    <row r="64" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>54</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>44</v>
+      <c r="B64" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C64" s="5">
+        <v>4</v>
+      </c>
+      <c r="D64" s="5">
         <v>6</v>
       </c>
-      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="F64" s="5">
+        <v>10</v>
+      </c>
+      <c r="G64" s="5">
+        <v>5</v>
+      </c>
       <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5">
+        <v>30</v>
+      </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -2837,23 +3367,31 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>55</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C65" s="5">
-        <v>3</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D65" s="5">
+        <v>6</v>
+      </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5">
+        <v>10</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5">
+        <v>30</v>
+      </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -2871,23 +3409,33 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>56</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C66" s="5">
-        <v>5</v>
-      </c>
-      <c r="D66" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6</v>
+      </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+      <c r="F66" s="5">
+        <v>10</v>
+      </c>
+      <c r="G66" s="5">
+        <v>5</v>
+      </c>
       <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5">
+        <v>30</v>
+      </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -2905,23 +3453,31 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
-    </row>
-    <row r="67" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>57</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>18</v>
+      <c r="B67" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C67" s="5">
-        <v>4</v>
-      </c>
-      <c r="D67" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6</v>
+      </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="5">
+        <v>10</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5">
+        <v>30</v>
+      </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -2939,23 +3495,33 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>58</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C68" s="5">
         <v>5</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5">
+        <v>6</v>
+      </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="F68" s="5">
+        <v>10</v>
+      </c>
+      <c r="G68" s="5">
+        <v>5</v>
+      </c>
       <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5">
+        <v>30</v>
+      </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -2973,8 +3539,10 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>59</v>
       </c>
@@ -2984,12 +3552,18 @@
       <c r="C69" s="5">
         <v>3</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5">
+        <v>6</v>
+      </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="5">
+        <v>10</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5">
+        <v>30</v>
+      </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -3007,8 +3581,10 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>60</v>
       </c>
@@ -3018,12 +3594,18 @@
       <c r="C70" s="5">
         <v>5</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <v>6</v>
+      </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5">
+        <v>10</v>
+      </c>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5">
+        <v>30</v>
+      </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -3041,8 +3623,10 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>61</v>
       </c>
@@ -3052,12 +3636,20 @@
       <c r="C71" s="5">
         <v>3</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5">
+        <v>6</v>
+      </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="F71" s="5">
+        <v>10</v>
+      </c>
+      <c r="G71" s="5">
+        <v>5</v>
+      </c>
       <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5">
+        <v>30</v>
+      </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -3075,23 +3667,31 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>62</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C72" s="5">
-        <v>5</v>
-      </c>
-      <c r="D72" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D72" s="5">
+        <v>6</v>
+      </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="5">
+        <v>10</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>30</v>
+      </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -3109,8 +3709,10 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>63</v>
       </c>
@@ -3120,12 +3722,20 @@
       <c r="C73" s="5">
         <v>3</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5">
+        <v>7</v>
+      </c>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="F73" s="5">
+        <v>10</v>
+      </c>
+      <c r="G73" s="5">
+        <v>5</v>
+      </c>
       <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5">
+        <v>30</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -3143,23 +3753,31 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>64</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" s="5">
         <v>5</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="5">
+        <v>7</v>
+      </c>
       <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="F74" s="5">
+        <v>10</v>
+      </c>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5">
+        <v>30</v>
+      </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -3177,23 +3795,33 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+    </row>
+    <row r="75" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>65</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>15</v>
+      <c r="B75" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C75" s="5">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D75" s="5">
+        <v>7</v>
+      </c>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
+      <c r="F75" s="5">
+        <v>10</v>
+      </c>
+      <c r="G75" s="5">
+        <v>5</v>
+      </c>
       <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5">
+        <v>30</v>
+      </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -3211,23 +3839,31 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>66</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" s="5">
-        <v>6</v>
-      </c>
-      <c r="D76" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D76" s="5">
+        <v>7</v>
+      </c>
       <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5">
+        <v>10</v>
+      </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="I76" s="5">
+        <v>30</v>
+      </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -3245,8 +3881,10 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>67</v>
       </c>
@@ -3256,12 +3894,20 @@
       <c r="C77" s="5">
         <v>3</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="5">
+        <v>7</v>
+      </c>
       <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="F77" s="5">
+        <v>10</v>
+      </c>
+      <c r="G77" s="5">
+        <v>5</v>
+      </c>
       <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="I77" s="5">
+        <v>30</v>
+      </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -3279,23 +3925,31 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>68</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C78" s="5">
         <v>5</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5">
+        <v>7</v>
+      </c>
       <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="F78" s="5">
+        <v>10</v>
+      </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="I78" s="5">
+        <v>30</v>
+      </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -3313,23 +3967,31 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
-    </row>
-    <row r="79" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>69</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>18</v>
+      <c r="B79" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C79" s="5">
-        <v>4</v>
-      </c>
-      <c r="D79" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D79" s="5">
+        <v>7</v>
+      </c>
       <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5">
+        <v>10</v>
+      </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="I79" s="5">
+        <v>30</v>
+      </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -3347,23 +4009,33 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>70</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C80" s="5">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D80" s="5">
+        <v>7</v>
+      </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="F80" s="5">
+        <v>10</v>
+      </c>
+      <c r="G80" s="5">
+        <v>5</v>
+      </c>
       <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5">
+        <v>30</v>
+      </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -3381,23 +4053,31 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>71</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C81" s="5">
-        <v>3</v>
-      </c>
-      <c r="D81" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D81" s="5">
+        <v>7</v>
+      </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="F81" s="5">
+        <v>10</v>
+      </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="I81" s="5">
+        <v>30</v>
+      </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -3415,23 +4095,33 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>72</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C82" s="5">
-        <v>5</v>
-      </c>
-      <c r="D82" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D82" s="5">
+        <v>7</v>
+      </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="F82" s="5">
+        <v>10</v>
+      </c>
+      <c r="G82" s="5">
+        <v>5</v>
+      </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="I82" s="5">
+        <v>30</v>
+      </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -3449,23 +4139,31 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>73</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C83" s="5">
-        <v>3</v>
-      </c>
-      <c r="D83" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D83" s="5">
+        <v>7</v>
+      </c>
       <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="F83" s="5">
+        <v>10</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="I83" s="5">
+        <v>30</v>
+      </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -3483,23 +4181,33 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>74</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C84" s="5">
-        <v>5</v>
-      </c>
-      <c r="D84" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D84" s="5">
+        <v>8</v>
+      </c>
       <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="F84" s="5">
+        <v>10</v>
+      </c>
+      <c r="G84" s="5">
+        <v>5</v>
+      </c>
       <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5">
+        <v>30</v>
+      </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -3517,182 +4225,19 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>75</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="5">
-        <v>3</v>
-      </c>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>76</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="5">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
-        <v>77</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="5">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>78</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="5">
-        <v>6</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
-        <v>79</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C89" s="5">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C91" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3703,12 +4248,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/design/Z_战斗.xlsx
+++ b/design/Z_战斗.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>output</t>
   </si>
@@ -290,23 +290,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>可以投降的阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加速帧率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>quick_frame_rate(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>surrender_phase(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>surrender_phase(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -757,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -773,7 +761,7 @@
     <col min="6" max="6" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,7 +782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -805,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,25 +813,22 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -851,13 +836,10 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -865,13 +847,10 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -880,9 +859,6 @@
       </c>
       <c r="C11" s="5">
         <v>20</v>
-      </c>
-      <c r="D11" s="5">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -896,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -972,7 +948,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>55</v>
@@ -981,10 +957,10 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -1001,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1010,10 +986,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
         <v>19</v>
@@ -1030,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1039,10 +1015,10 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -1069,7 +1045,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" s="5">
         <v>30</v>
@@ -1101,9 +1077,7 @@
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5">
         <v>1</v>
       </c>
@@ -2854,12 +2828,12 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
     </row>
-    <row r="53" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>43</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>18</v>
+      <c r="B53" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C53" s="5">
         <v>4</v>
@@ -3326,12 +3300,12 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>54</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>18</v>
+      <c r="B64" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C64" s="5">
         <v>4</v>
@@ -3798,12 +3772,12 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
     </row>
-    <row r="75" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>65</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>18</v>
+      <c r="B75" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C75" s="5">
         <v>4</v>
@@ -4321,16 +4295,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -4339,16 +4313,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -4363,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
